--- a/Data/Outputs/Prices.xlsx
+++ b/Data/Outputs/Prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagge\Documents\UiPath\Practica 2 Framework\Data\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5352F7C-97A2-417F-B76E-CF11A78D9D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC432F3-0DA6-4617-9B07-6B241B7ADA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" xr2:uid="{B1FA7FE3-CACD-413A-AAB8-F9FD56402F2E}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" xr2:uid="{5C391B22-C19C-48C8-AF39-A3990358D388}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>Lenovo Laptop IdeaPad 3</t>
   </si>
   <si>
-    <t>Lenovo Smart Tab M8 8''</t>
+    <t>Lenovo Smart Tab M8</t>
   </si>
   <si>
     <t>ADATA Memoria RAM DIMM XPG SPECTRIX D60G RGB 16GB DDR4 3200Mhz, Gris TUSTENO, Pequeño</t>
@@ -437,7 +437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC06F7B-5CE4-4E48-A37C-0784A2F59D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF0849A-8372-45CC-9805-8295C657A75B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>11999</v>
+        <v>11935</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>2699</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,8 +496,8 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2">
-        <v>1067</v>
+      <c r="E4">
+        <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,13 +505,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>566</v>
+      <c r="E5" s="2">
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>198</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>599</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>1499</v>
+      <c r="E10">
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,14 +604,14 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(B2:B11)</f>
-        <v>20621</v>
+        <v>20127</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>15650</v>
+        <v>15656</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AC145E-8675-45CE-A71E-4F13EAC2EC07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B0E3C-3824-46BF-B74D-1279A127D13D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
